--- a/CSC3510 S2021/Lectures/04 Intro to JUNIT.xlsx
+++ b/CSC3510 S2021/Lectures/04 Intro to JUNIT.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\dlash\github\CSC3510\S2021\Lectures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlash\Documents\GitHub\CSC3510\CSC3510 S2021\Lectures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A055C59-6BB1-4DB3-9F08-B64849796B8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{BB4E4B85-108B-465F-9428-34A995F4054F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Set up" sheetId="2" r:id="rId1"/>
-    <sheet name="JUNIT Asserts" sheetId="1" r:id="rId2"/>
-    <sheet name="SalesBounus" sheetId="4" r:id="rId3"/>
-    <sheet name="BowlingHcap" sheetId="3" r:id="rId4"/>
+    <sheet name="SetUp Part 2" sheetId="5" r:id="rId2"/>
+    <sheet name="JUNIT Asserts" sheetId="1" r:id="rId3"/>
+    <sheet name="SalesBounus" sheetId="4" r:id="rId4"/>
+    <sheet name="BowlingHcap" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -375,8 +375,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="590550" y="6638925"/>
-          <a:ext cx="10647619" cy="5942857"/>
+          <a:off x="590550" y="6207125"/>
+          <a:ext cx="10647619" cy="5536457"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -440,15 +440,445 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4784515" cy="405432"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA913FC5-5F11-4302-A786-EBA4ED69D5A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10039350" y="803275"/>
+          <a:ext cx="4784515" cy="405432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000"/>
+            <a:t>Right click here ... then show action context </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD3DD977-FB0B-4E0D-9F27-68216B6CF795}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7315200" y="6543675"/>
+          <a:ext cx="1162051" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>541714</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>180476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3CDE986-11D4-4296-8BAF-6B441468B68A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="14478000"/>
+          <a:ext cx="9685714" cy="3990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{603BE50D-CF6A-4810-A693-333E3B702589}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12830176" y="6553200"/>
+          <a:ext cx="1552574" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2417473-6BDE-4D76-8368-1B4B9CFA107B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="14097000"/>
+          <a:ext cx="1552574" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2142446" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E92D87D4-D303-44CE-B933-0AA7C982531C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5048250" y="13896975"/>
+          <a:ext cx="2142446" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Now need to get the imports right</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>377190</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4212563" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="TextBox 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89EA41A4-5542-4896-AB07-DA2FDBD16EB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6473190" y="468630"/>
+          <a:ext cx="4212563" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>https://www.youtube.com/watch?v=o5pE7L2tVV8 - Brian Fraiser 7:39 </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>351895</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>40800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10744200" y="1397000"/>
+          <a:ext cx="4238095" cy="3800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="11548161" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="TextBox 8">
+        <xdr:cNvPr id="20" name="TextBox 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA913FC5-5F11-4302-A786-EBA4ED69D5A1}"/>
@@ -522,34 +952,374 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9484199" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1089660" y="472440"/>
+          <a:ext cx="9484199" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>https://www.jetbrains.com/help/idea/2018.1/creating-and-managing-modules.html#configuring-content-roots</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2148840" y="1684020"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3775521" cy="2283959"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1356360" y="1562100"/>
+          <a:ext cx="3775521" cy="2283959"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1. Select Proect -&gt; New Directory ... call</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> it tests</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   Notice it is at same 'level' as src</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Right-click a folder in the Project tool window.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Select </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Mark Directory as</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> from the context menu.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Select the necessary category.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Mark it</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> as "Test Sources Root"</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>268247</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>20523</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5935980" y="1684020"/>
+          <a:ext cx="2866667" cy="3457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>552451</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD3DD977-FB0B-4E0D-9F27-68216B6CF795}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7315200" y="6543675"/>
-          <a:ext cx="1162051" cy="1076325"/>
+        <a:xfrm>
+          <a:off x="3230880" y="2933700"/>
+          <a:ext cx="3093720" cy="1135380"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -575,78 +1345,28 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>541714</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>180476</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3CDE986-11D4-4296-8BAF-6B441468B68A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1828800" y="14478000"/>
-          <a:ext cx="9685714" cy="3990476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{603BE50D-CF6A-4810-A693-333E3B702589}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12830176" y="6553200"/>
-          <a:ext cx="1552574" cy="1104900"/>
+          <a:off x="3680460" y="1836420"/>
+          <a:ext cx="2987040" cy="129540"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -672,34 +1392,83 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13" descr="mark as tests project tool window"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1554480" y="5128260"/>
+          <a:ext cx="5318760" cy="3131820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2417473-6BDE-4D76-8368-1B4B9CFA107B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6705600" y="14097000"/>
-          <a:ext cx="1552574" cy="1104900"/>
+          <a:off x="2506980" y="3726180"/>
+          <a:ext cx="2674620" cy="2263140"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -725,38 +1494,67 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>557426</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>62388</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4396740" y="9593580"/>
+          <a:ext cx="5914286" cy="3819048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2142446" cy="264560"/>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5577104" cy="1188146"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="TextBox 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E92D87D4-D303-44CE-B933-0AA7C982531C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="20" name="TextBox 19"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5048250" y="13896975"/>
-          <a:ext cx="2142446" cy="264560"/>
+          <a:off x="533400" y="8580120"/>
+          <a:ext cx="5577104" cy="1188146"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
+          <a:srgbClr val="FFFF00"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -779,82 +1577,178 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr fontAlgn="base"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Now need to get the imports right</a:t>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Create a new class in the </a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tests </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>directory</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> ... called it </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AdderTest2.java</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:endParaRPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>add in the code ..</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:endParaRPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>note that when adding 2 tests in 1 method ... if 1 fails no indicate 1 passes</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4212563" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="TextBox 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89EA41A4-5542-4896-AB07-DA2FDBD16EB0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7296150" y="400050"/>
-          <a:ext cx="4212563" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="8770620"/>
+          <a:ext cx="2278380" cy="1272540"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>https://www.youtube.com/watch?v=o5pE7L2tVV8 - Brian Fraiser 7:39 </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1574,7 +2468,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2280,7 +3174,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2889,11 +3783,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601D937A-1900-4A28-9DA6-1CC457EE8B89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView topLeftCell="A69" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2904,10 +3798,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB58199-123C-48E3-8EC0-43450B72BC92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A175" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="O46" sqref="O46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
@@ -2918,11 +3828,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E79FA9-58F4-494C-B7F0-193E478C4F5A}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="U164" sqref="U164"/>
     </sheetView>
   </sheetViews>
@@ -2933,12 +3843,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42B60A8-B9AD-4E29-965D-793A03862571}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="P155" sqref="P155"/>
+      <selection activeCell="B145" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/CSC3510 S2021/Lectures/04 Intro to JUNIT.xlsx
+++ b/CSC3510 S2021/Lectures/04 Intro to JUNIT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Set up" sheetId="2" r:id="rId1"/>
@@ -445,7 +445,7 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>92075</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4784515" cy="405432"/>
+    <xdr:ext cx="6932667" cy="405432"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="TextBox 8">
@@ -459,8 +459,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10039350" y="803275"/>
-          <a:ext cx="4784515" cy="405432"/>
+          <a:off x="10082893" y="854075"/>
+          <a:ext cx="6932667" cy="405432"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -494,7 +494,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="2000"/>
-            <a:t>Right click here ... then show action context </a:t>
+            <a:t>Right click here...Inside the cup class ... then show action context </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -770,11 +770,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>377190</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4212563" cy="264560"/>
+      <xdr:colOff>567690</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>143691</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6089809" cy="342786"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="25" name="TextBox 24">
@@ -788,8 +788,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6473190" y="468630"/>
-          <a:ext cx="4212563" cy="264560"/>
+          <a:off x="6690904" y="334191"/>
+          <a:ext cx="6089809" cy="342786"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -822,7 +822,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1600"/>
             <a:t>https://www.youtube.com/watch?v=o5pE7L2tVV8 - Brian Fraiser 7:39 </a:t>
           </a:r>
         </a:p>
@@ -872,10 +872,10 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="11548161" cy="264560"/>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>81190</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="14648241" cy="311496"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="20" name="TextBox 19">
@@ -889,8 +889,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3409950" y="6276975"/>
-          <a:ext cx="11548161" cy="264560"/>
+          <a:off x="3423557" y="6177190"/>
+          <a:ext cx="14648241" cy="311496"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -923,35 +923,167 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1400"/>
             <a:t>After creating a project ... create a class to test</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
             <a:t> ... then </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1400"/>
             <a:t> right click the</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
             <a:t> class </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1400"/>
             <a:t> -&gt; show Context Actions and then -&gt; select Create Tests .... pick JUNIT5</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
             <a:t> -&gt; Will say not found -&gt; Fix and pick a recent JUNIT5</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:endParaRPr lang="en-US" sz="1400"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>365298</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16532679" y="1905000"/>
+          <a:ext cx="5876190" cy="2942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>40821</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14464393" y="1211036"/>
+          <a:ext cx="2109107" cy="898071"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>394608</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11919857" y="1156607"/>
+          <a:ext cx="1333501" cy="789214"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3786,11 +3918,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AM62" sqref="AM62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3801,11 +3933,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3817,11 +3949,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3832,11 +3964,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U164" sqref="U164"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3847,11 +3979,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="B145" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/CSC3510 S2021/Lectures/04 Intro to JUNIT.xlsx
+++ b/CSC3510 S2021/Lectures/04 Intro to JUNIT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Set up" sheetId="2" r:id="rId1"/>
@@ -557,15 +557,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>27214</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>40822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>541714</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>180476</xdr:rowOff>
+      <xdr:colOff>568928</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>30798</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -588,8 +588,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1828800" y="14478000"/>
-          <a:ext cx="9685714" cy="3990476"/>
+          <a:off x="1864178" y="14518822"/>
+          <a:ext cx="9726536" cy="3990476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -954,16 +954,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>365298</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>85357</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>165487</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>136073</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>186203</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>58143</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -980,8 +980,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16532679" y="1905000"/>
-          <a:ext cx="5876190" cy="2942857"/>
+          <a:off x="16085844" y="1469573"/>
+          <a:ext cx="8593216" cy="4303570"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3918,8 +3918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AM62" sqref="AM62"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V84" sqref="V84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3933,7 +3933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
@@ -3949,7 +3949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
@@ -3964,7 +3964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="U164" sqref="U164"/>
     </sheetView>
   </sheetViews>

--- a/CSC3510 S2021/Lectures/04 Intro to JUNIT.xlsx
+++ b/CSC3510 S2021/Lectures/04 Intro to JUNIT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Set up" sheetId="2" r:id="rId1"/>
@@ -2694,14 +2694,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>507817</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>5083</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>43183</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2724,8 +2724,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7376160" y="5737860"/>
-          <a:ext cx="6542857" cy="5057143"/>
+          <a:off x="7376160" y="4869180"/>
+          <a:ext cx="6542857" cy="5270503"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2737,15 +2737,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>81915</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>100965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>366864</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>92691</xdr:rowOff>
+      <xdr:colOff>395439</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>26016</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2768,8 +2768,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7368540" y="10591800"/>
-          <a:ext cx="6409524" cy="5228571"/>
+          <a:off x="7397115" y="9816465"/>
+          <a:ext cx="6409524" cy="5449551"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2780,16 +2780,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>87630</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>334475</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>136508</xdr:rowOff>
+      <xdr:colOff>429725</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>146033</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2812,8 +2812,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7307580" y="15582900"/>
-          <a:ext cx="6438095" cy="5219048"/>
+          <a:off x="7402830" y="14906625"/>
+          <a:ext cx="6438095" cy="5432408"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2825,15 +2825,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>582930</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>112395</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>372413</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>48780</xdr:rowOff>
+      <xdr:colOff>391463</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>77355</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2856,8 +2856,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7269480" y="20749260"/>
-          <a:ext cx="7733333" cy="6000000"/>
+          <a:off x="7288530" y="19924395"/>
+          <a:ext cx="7733333" cy="6251460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3918,8 +3918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V84" sqref="V84"/>
+    <sheetView topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3933,8 +3933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="O46" sqref="O46"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="S62" sqref="S62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3949,8 +3949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="R274" sqref="R274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3964,8 +3964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="U164" sqref="U164"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CSC3510 S2021/Lectures/04 Intro to JUNIT.xlsx
+++ b/CSC3510 S2021/Lectures/04 Intro to JUNIT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Set up" sheetId="2" r:id="rId1"/>
@@ -2597,6 +2597,426 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4613635" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6315075" y="14268450"/>
+          <a:ext cx="4613635" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>Suppose have this class ... what do you need to test? </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4171950" y="14487525"/>
+          <a:ext cx="2257425" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3657600" y="14649450"/>
+          <a:ext cx="3933826" cy="2724150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4067175" y="14658975"/>
+          <a:ext cx="3552825" cy="4524375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6315075" y="14268450"/>
+          <a:ext cx="3933826" cy="2724150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4613635" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="TextBox 26"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6467475" y="14420850"/>
+          <a:ext cx="4613635" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>Suppose have this class ... what do you need to test? </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2385012" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="TextBox 27"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6257925" y="24955500"/>
+          <a:ext cx="2385012" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>Does class creation</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t> work?</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2385012" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="TextBox 28"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6219825" y="27070050"/>
+          <a:ext cx="2385012" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>Does class creation</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t> work?</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3949,8 +4369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="R274" sqref="R274"/>
+    <sheetView topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="R100" sqref="R100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3964,7 +4384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>

--- a/CSC3510 S2021/Lectures/04 Intro to JUNIT.xlsx
+++ b/CSC3510 S2021/Lectures/04 Intro to JUNIT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Set up" sheetId="2" r:id="rId1"/>
@@ -2842,11 +2842,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4613635" cy="342786"/>
+      <xdr:colOff>344261</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>106136</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1951112" cy="342786"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="27" name="TextBox 26"/>
@@ -2854,8 +2854,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6467475" y="14420850"/>
-          <a:ext cx="4613635" cy="342786"/>
+          <a:off x="6467475" y="22585136"/>
+          <a:ext cx="1951112" cy="342786"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2886,8 +2886,13 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1600"/>
-            <a:t>Suppose have this class ... what do you need to test? </a:t>
-          </a:r>
+            <a:t>Use these test</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t> suites </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4369,8 +4374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="R100" sqref="R100"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S104" sqref="S104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4384,7 +4389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>

--- a/CSC3510 S2021/Lectures/04 Intro to JUNIT.xlsx
+++ b/CSC3510 S2021/Lectures/04 Intro to JUNIT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView minimized="1" xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Set up" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="SalesBounus" sheetId="4" r:id="rId4"/>
     <sheet name="BowlingHcap" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3016,6 +3016,108 @@
           <a:r>
             <a:rPr lang="en-US" sz="1600"/>
             <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>204106</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6401304" cy="843693"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11225892" y="21376822"/>
+          <a:ext cx="6401304" cy="843693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>https://stackoverflow.com/questions/35553464/java-assert-double-is-nan</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>boolean</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t> isNan = Double.isNaN(calculateIt(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"input text"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>)); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>assertTrue(isNan);</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4374,8 +4476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S104" sqref="S104"/>
+    <sheetView topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T83" sqref="T83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4389,7 +4491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
       <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>

--- a/CSC3510 S2021/Lectures/04 Intro to JUNIT.xlsx
+++ b/CSC3510 S2021/Lectures/04 Intro to JUNIT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Set up" sheetId="2" r:id="rId1"/>
@@ -3124,6 +3124,101 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6855082" cy="405432"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7402286" y="7116536"/>
+          <a:ext cx="6855082" cy="405432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000"/>
+            <a:t>https://howtodoinjava.com/junit5/junit-5-assertions-examples/</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>472894</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>15976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8858251" y="7864928"/>
+          <a:ext cx="5085714" cy="2819048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4476,8 +4571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T83" sqref="T83"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X41" sqref="X41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4491,8 +4586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CSC3510 S2021/Lectures/04 Intro to JUNIT.xlsx
+++ b/CSC3510 S2021/Lectures/04 Intro to JUNIT.xlsx
@@ -9,14 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Set up" sheetId="2" r:id="rId1"/>
     <sheet name="SetUp Part 2" sheetId="5" r:id="rId2"/>
     <sheet name="JUNIT Asserts" sheetId="1" r:id="rId3"/>
-    <sheet name="SalesBounus" sheetId="4" r:id="rId4"/>
-    <sheet name="BowlingHcap" sheetId="3" r:id="rId5"/>
+    <sheet name="NaN Info" sheetId="7" r:id="rId4"/>
+    <sheet name="TDD" sheetId="6" r:id="rId5"/>
+    <sheet name="SalesBounus" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId7"/>
+    <sheet name="BowlingHcap" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2502,16 +2505,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>599052</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>46980</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>501649</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>144991</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>143969</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>163396</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2534,8 +2537,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8267700" y="981075"/>
-          <a:ext cx="8180952" cy="5161905"/>
+          <a:off x="9095316" y="906991"/>
+          <a:ext cx="8235986" cy="5161905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3131,7 +3134,7 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>68036</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6855082" cy="405432"/>
+    <xdr:ext cx="9522607" cy="530658"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="20" name="TextBox 19"/>
@@ -3140,7 +3143,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7402286" y="7116536"/>
-          <a:ext cx="6855082" cy="405432"/>
+          <a:ext cx="9522607" cy="530658"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3173,7 +3176,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="2000"/>
+            <a:rPr lang="en-US" sz="2800"/>
             <a:t>https://howtodoinjava.com/junit5/junit-5-assertions-examples/</a:t>
           </a:r>
         </a:p>
@@ -3224,28 +3227,262 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5361917" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381125" y="838200"/>
+          <a:ext cx="5361917" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>https://www.geeksforgeeks.org/nan-not-number-java/</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5893680" cy="1297919"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2695575" y="1695450"/>
+          <a:ext cx="5893680" cy="1297919"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Floating type doesn’t produces Exception while operating with mathematical values</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
+            </a:rPr>
+            <a:t>IEEE 754</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> floating point numbers can represent positive or negative infinity, and NaN (not a number). These three values arise from calculations whose result is undefined or cannot be represented accurately.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Java is following known math facts. 1.0 / 0.0 is infinity, but the others are indeterminate forms, which Java represents as NaN (not a number).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4458528" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="3609975"/>
+          <a:ext cx="4458528" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>https://stackoverflow.com/questions/35553464/java-assert-double-is-nan</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>313600</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>113714</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>227742</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171146</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C7475EC-7BDB-486D-BBAB-DE19746534D6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3258,8 +3495,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="365760"/>
-          <a:ext cx="5800000" cy="4685714"/>
+          <a:off x="1895475" y="4219575"/>
+          <a:ext cx="6866667" cy="2428571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3268,25 +3505,157 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4595810" cy="953466"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="548640" y="0"/>
+          <a:ext cx="4595810" cy="953466"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>What is TDD?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Use Tests to Drive the development the code</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> .... write tests first before code </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>-- It is iterative and requies us to write a lot of tests </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>217676</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>58385</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>599238</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>98927</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C3D773-3EFF-4F1D-A4EE-FE51815032EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1089660"/>
+          <a:ext cx="6695238" cy="1104767"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>168772</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>79798</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3302,8 +3671,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7315200" y="365760"/>
-          <a:ext cx="11190476" cy="5361905"/>
+          <a:off x="83820" y="2887980"/>
+          <a:ext cx="6180952" cy="1763818"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3312,25 +3681,104 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5402697" cy="1344599"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="5387340"/>
+          <a:ext cx="5402697" cy="1344599"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>Unit Test NOT integration testing or complete testing.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t>1. Test indivudal scenaries or paths through code ... small tests</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>507817</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>43183</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>119397</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>138626</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCCFE6CB-5D84-4687-AB82-4DDC771509BF}"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3346,8 +3794,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7376160" y="4869180"/>
-          <a:ext cx="6542857" cy="5270503"/>
+          <a:off x="662940" y="6758940"/>
+          <a:ext cx="4942857" cy="3666686"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3356,25 +3804,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95824</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3406141" cy="968983"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6696075" y="2572324"/>
+          <a:ext cx="3406141" cy="968983"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>The idea here is to write the minumum functionality to make the test pass</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>... and of course ... it passes</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>81915</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>100965</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>395439</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>26016</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>178846</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>367311</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171564</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEDE651D-6209-4B6E-AFCB-8F7C7DFE56C1}"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3390,6 +3907,187 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="6884446" y="3695700"/>
+          <a:ext cx="6284465" cy="2952864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>313600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>113714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C7475EC-7BDB-486D-BBAB-DE19746534D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="365760"/>
+          <a:ext cx="5800000" cy="4685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>217676</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>58385</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C3D773-3EFF-4F1D-A4EE-FE51815032EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7315200" y="365760"/>
+          <a:ext cx="11190476" cy="5361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>507817</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>43183</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCCFE6CB-5D84-4687-AB82-4DDC771509BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7376160" y="4869180"/>
+          <a:ext cx="6542857" cy="5270503"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>81915</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>100965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>395439</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>26016</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEDE651D-6209-4B6E-AFCB-8F7C7DFE56C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="7397115" y="9816465"/>
           <a:ext cx="6409524" cy="5449551"/>
         </a:xfrm>
@@ -3491,15 +4189,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>100869</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>147759</xdr:rowOff>
+      <xdr:colOff>138969</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>33459</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3522,8 +4220,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5494020"/>
-          <a:ext cx="7416069" cy="5626539"/>
+          <a:off x="38100" y="5798820"/>
+          <a:ext cx="7416069" cy="5855139"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3925,10 +4623,132 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6391275" cy="3598677"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="23317200"/>
+          <a:ext cx="6391275" cy="3598677"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>Suppose you have a set of employees </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>Where each employee has an</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t> Id, Joblevel  (either Manager or Employee )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t>a departID and Salary Per year</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t>In addition you have a set of DepartmentSales For the year</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t>Each DepartmentSales have a </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t>DepartId and a TotalSales</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t>Management wants to impliement a monthly payroll algorithm that </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t>1. Pays all employee 1/12 of their salary per month</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t>2. Awards the departments with the highest sales an extra 500 for regular employees and 1,000 for management</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4540,7 +5360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
@@ -4555,7 +5375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="S62" sqref="S62"/>
     </sheetView>
   </sheetViews>
@@ -4571,8 +5391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X41" sqref="X41"/>
+    <sheetView topLeftCell="A141" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T63" sqref="T63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4586,8 +5406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4601,7 +5421,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="L140" sqref="L140"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A150" workbookViewId="0">
       <selection activeCell="B145" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>

--- a/CSC3510 S2021/Lectures/04 Intro to JUNIT.xlsx
+++ b/CSC3510 S2021/Lectures/04 Intro to JUNIT.xlsx
@@ -17,9 +17,10 @@
     <sheet name="JUNIT Asserts" sheetId="1" r:id="rId3"/>
     <sheet name="NaN Info" sheetId="7" r:id="rId4"/>
     <sheet name="TDD" sheetId="6" r:id="rId5"/>
-    <sheet name="SalesBounus" sheetId="4" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="8" r:id="rId7"/>
-    <sheet name="BowlingHcap" sheetId="3" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId6"/>
+    <sheet name="SalesBounus" sheetId="4" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId8"/>
+    <sheet name="BowlingHcap" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -3875,16 +3876,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>178846</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>367311</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>171564</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>407446</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>595911</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95364</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3907,7 +3908,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6884446" y="3695700"/>
+          <a:off x="5893846" y="2857500"/>
           <a:ext cx="6284465" cy="2952864"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3917,10 +3918,1141 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>208763</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>171151</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6715125" y="8639175"/>
+          <a:ext cx="6295238" cy="2390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6116483" cy="953466"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1571625" y="11039475"/>
+          <a:ext cx="6116483" cy="953466"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Test Case Conventions</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1. Use a seperate tests directory</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> put the work 'test' in each test method name (E.g., hangman_Test or test_hangman)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>3. Use long test case method names that are descriptive (e.g.,  test_number_of_constanstants_in_word)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285154</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180788</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="971550"/>
+          <a:ext cx="4771429" cy="1495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2970172" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="533400"/>
+          <a:ext cx="2970172" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>How do you get going with TDD?</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>37718</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28292</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1857375" y="2905125"/>
+          <a:ext cx="3057143" cy="2266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>504515</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7172325" y="2752725"/>
+          <a:ext cx="2476190" cy="1609524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4400550" y="3095625"/>
+          <a:ext cx="2809875" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2441438" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6734175" y="2486025"/>
+          <a:ext cx="2441438" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>So ... start with play next round ... since</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5309467" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4648200" y="5276850"/>
+          <a:ext cx="5309467" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>From ... play next work can derive a set of function</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> that need to occur </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>208736</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>9246</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4667250" y="8067675"/>
+          <a:ext cx="6514286" cy="2228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>37298</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114004</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4591050" y="5743575"/>
+          <a:ext cx="6419048" cy="2371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>79019</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>47358</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285750" y="7508519"/>
+          <a:ext cx="4267200" cy="1682839"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2733676" y="6581775"/>
+          <a:ext cx="1104899" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4648200" y="5276850"/>
+          <a:ext cx="2809875" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2657475" cy="530658"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1571625" y="6076950"/>
+          <a:ext cx="2657475" cy="530658"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>As you</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> think about these steps ... derive some basic requirements</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4048125" y="6572250"/>
+          <a:ext cx="581026" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209030</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="923925" y="9810750"/>
+          <a:ext cx="4161905" cy="1200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2800350" y="6734175"/>
+          <a:ext cx="1190626" cy="3228975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>408869</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>104504</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3295650" y="11268075"/>
+          <a:ext cx="5647619" cy="2171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2069221" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="TextBox 26"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2657475" y="14001750"/>
+          <a:ext cx="2069221" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>https://refactoring.com/catalog/</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>274961</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>123137</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1133475" y="14620875"/>
+          <a:ext cx="10114286" cy="5504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>370670</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>151958</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2466975" y="20431125"/>
+          <a:ext cx="6438095" cy="3533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>380190</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>18595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="24193500"/>
+          <a:ext cx="6476190" cy="3638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6314293" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextBox 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3143250" y="20221575"/>
+          <a:ext cx="6314293" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>https://stackoverflow.com/questions/31890991/how-to-use-stubs-in-junit-and-java</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4627,10 +5759,10 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="6391275" cy="3598677"/>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6819900" cy="4099584"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="TextBox 11"/>
@@ -4638,8 +5770,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="257175" y="23317200"/>
-          <a:ext cx="6391275" cy="3598677"/>
+          <a:off x="257175" y="23088600"/>
+          <a:ext cx="6819900" cy="4099584"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4673,7 +5805,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1600"/>
-            <a:t>Suppose you have a set of employees </a:t>
+            <a:t>Suppose you have a set of employees  - Employees</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4698,7 +5830,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1600" baseline="0"/>
-            <a:t>In addition you have a set of DepartmentSales For the year</a:t>
+            <a:t>In addition you have a set of DepartmentSales For the year - SalesByDep</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4739,16 +5871,63 @@
             <a:rPr lang="en-US" sz="1600" baseline="0"/>
             <a:t>2. Awards the departments with the highest sales an extra 500 for regular employees and 1,000 for management</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t>Payroll </a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>246863</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133051</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6143625" y="600075"/>
+          <a:ext cx="6295238" cy="2390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5391,7 +6570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A141" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A240" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="T63" sqref="T63"/>
     </sheetView>
   </sheetViews>
@@ -5406,7 +6585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -5421,8 +6600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5436,8 +6615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="L140" sqref="L140"/>
+    <sheetView tabSelected="1" topLeftCell="B103" workbookViewId="0">
+      <selection activeCell="Q107" sqref="Q107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5451,6 +6630,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5459,7 +6653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
